--- a/src/main/resources/1.xlsx
+++ b/src/main/resources/1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\ali\excel-convert\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="定向优惠活动宝贝" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>折扣值</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,18 +67,14 @@
   </si>
   <si>
     <t>是否包邮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NEW_1190805</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -99,12 +100,6 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -114,7 +109,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -122,33 +117,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -209,7 +187,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -241,9 +219,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -275,6 +254,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -450,14 +430,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I5"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="30.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
@@ -472,7 +452,7 @@
     <col min="12" max="12" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="108.75">
+    <row r="1" spans="1:12" ht="108.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -508,110 +488,6 @@
       </c>
       <c r="L1" s="2" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="14.25">
-      <c r="A2" s="4">
-        <v>23068604764</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>0.01</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4">
-        <v>30</v>
-      </c>
-      <c r="I2" s="3">
-        <v>41785.541666666664</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="14.25">
-      <c r="A3" s="4">
-        <v>38976575183</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>0.01</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4">
-        <v>50</v>
-      </c>
-      <c r="I3" s="3">
-        <v>41785.541666666664</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="14.25">
-      <c r="A4" s="4">
-        <v>36269636467</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>0.01</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4">
-        <v>100</v>
-      </c>
-      <c r="I4" s="3">
-        <v>41785.541666666664</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="14.25">
-      <c r="A5" s="4">
-        <v>39141540195</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>0.01</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4">
-        <v>9999999</v>
-      </c>
-      <c r="I5" s="3">
-        <v>41785.541666666664</v>
       </c>
     </row>
   </sheetData>
